--- a/PlanetInfo.xlsx
+++ b/PlanetInfo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Evelyn\Career\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06C4FC55-3B34-4A0F-B267-7638E5AB409A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B871BE00-DF2F-4C48-B31B-BABA3019CAA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23700" yWindow="-345" windowWidth="22395" windowHeight="18825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-37395" yWindow="645" windowWidth="25095" windowHeight="15780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Sun</t>
   </si>
@@ -91,6 +91,12 @@
   </si>
   <si>
     <t>https://www.enchantedlearning.com/subjects/astronomy/planets/</t>
+  </si>
+  <si>
+    <t>Population</t>
+  </si>
+  <si>
+    <t>Armament</t>
   </si>
 </sst>
 </file>
@@ -483,11 +489,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ36"/>
+  <dimension ref="A1:AS36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:S2"/>
+      <selection pane="bottomLeft" activeCell="AS1" sqref="AS1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.08984375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -497,7 +503,7 @@
     <col min="36" max="36" width="5.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2"/>
       <c r="AA1" t="s">
         <v>3</v>
@@ -511,8 +517,14 @@
       <c r="AJ1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AO1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>21</v>
       </c>
@@ -535,7 +547,7 @@
       <c r="R2" s="11"/>
       <c r="S2" s="11"/>
     </row>
-    <row r="3" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AA3" s="10" t="s">
         <v>19</v>
       </c>
@@ -549,7 +561,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="15" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AA15" s="9" t="s">
         <v>17</v>
       </c>

--- a/PlanetInfo.xlsx
+++ b/PlanetInfo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Evelyn\Career\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B871BE00-DF2F-4C48-B31B-BABA3019CAA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{765D10CD-818F-4446-8B41-B40DDC0C2480}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37395" yWindow="645" windowWidth="25095" windowHeight="15780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30750" yWindow="1785" windowWidth="26640" windowHeight="13440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Sun</t>
   </si>
@@ -97,6 +97,12 @@
   </si>
   <si>
     <t>Armament</t>
+  </si>
+  <si>
+    <t>Moons</t>
+  </si>
+  <si>
+    <t>Extra Attributes</t>
   </si>
 </sst>
 </file>
@@ -489,11 +495,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AS36"/>
+  <dimension ref="A1:BB36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AS1" sqref="AS1"/>
+      <selection pane="bottomLeft" activeCell="BB1" sqref="BB1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.08984375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -503,7 +509,7 @@
     <col min="36" max="36" width="5.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:54" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2"/>
       <c r="AA1" t="s">
         <v>3</v>
@@ -523,8 +529,14 @@
       <c r="AS1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AX1" t="s">
+        <v>24</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:54" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>21</v>
       </c>
@@ -547,7 +559,7 @@
       <c r="R2" s="11"/>
       <c r="S2" s="11"/>
     </row>
-    <row r="3" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:54" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AA3" s="10" t="s">
         <v>19</v>
       </c>
@@ -561,7 +573,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="15" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:54" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AA15" s="9" t="s">
         <v>17</v>
       </c>

--- a/PlanetInfo.xlsx
+++ b/PlanetInfo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Evelyn\Career\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{765D10CD-818F-4446-8B41-B40DDC0C2480}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A368EE9-78BF-427F-ADC2-AD20CDF391A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30750" yWindow="1785" windowWidth="26640" windowHeight="13440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20970" yWindow="1785" windowWidth="16860" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Sun</t>
   </si>
@@ -97,12 +97,6 @@
   </si>
   <si>
     <t>Armament</t>
-  </si>
-  <si>
-    <t>Moons</t>
-  </si>
-  <si>
-    <t>Extra Attributes</t>
   </si>
 </sst>
 </file>
@@ -495,9 +489,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BB36"/>
+  <dimension ref="A1:AS36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="BB1" sqref="BB1"/>
     </sheetView>
@@ -509,7 +503,7 @@
     <col min="36" max="36" width="5.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2"/>
       <c r="AA1" t="s">
         <v>3</v>
@@ -529,14 +523,8 @@
       <c r="AS1" t="s">
         <v>23</v>
       </c>
-      <c r="AX1" t="s">
-        <v>24</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:54" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>21</v>
       </c>
@@ -559,7 +547,7 @@
       <c r="R2" s="11"/>
       <c r="S2" s="11"/>
     </row>
-    <row r="3" spans="1:54" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AA3" s="10" t="s">
         <v>19</v>
       </c>
@@ -573,7 +561,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="15" spans="1:54" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AA15" s="9" t="s">
         <v>17</v>
       </c>

--- a/PlanetInfo.xlsx
+++ b/PlanetInfo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Evelyn\Career\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A368EE9-78BF-427F-ADC2-AD20CDF391A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EBED8B4-A367-40F5-B723-FDF3DE8364F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20970" yWindow="1785" windowWidth="16860" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-29295" yWindow="315" windowWidth="26355" windowHeight="16065" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>Sun</t>
   </si>
@@ -93,10 +93,16 @@
     <t>https://www.enchantedlearning.com/subjects/astronomy/planets/</t>
   </si>
   <si>
-    <t>Population</t>
-  </si>
-  <si>
     <t>Armament</t>
+  </si>
+  <si>
+    <t>Population (millions of beings)</t>
+  </si>
+  <si>
+    <t>Adjusted Population</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -186,7 +192,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -199,6 +205,7 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -489,11 +496,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AS36"/>
+  <dimension ref="A1:AT36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BB1" sqref="BB1"/>
+      <selection pane="bottomLeft" activeCell="AT15" sqref="AT15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.08984375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -501,9 +508,11 @@
     <col min="27" max="27" width="3.08984375" customWidth="1"/>
     <col min="30" max="30" width="11.1796875" customWidth="1"/>
     <col min="36" max="36" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="5.36328125" style="12" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="5.36328125" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:46" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2"/>
       <c r="AA1" t="s">
         <v>3</v>
@@ -517,14 +526,17 @@
       <c r="AJ1" t="s">
         <v>8</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AO1" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="AQ1" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="AT1" t="s">
         <v>22</v>
       </c>
-      <c r="AS1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:46" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>21</v>
       </c>
@@ -547,7 +559,7 @@
       <c r="R2" s="11"/>
       <c r="S2" s="11"/>
     </row>
-    <row r="3" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:46" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AA3" s="10" t="s">
         <v>19</v>
       </c>
@@ -560,8 +572,14 @@
       <c r="AJ3">
         <v>1413</v>
       </c>
-    </row>
-    <row r="15" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AO3" s="12">
+        <v>1.3</v>
+      </c>
+      <c r="AT3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:46" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AA15" s="9" t="s">
         <v>17</v>
       </c>
@@ -574,8 +592,14 @@
       <c r="AJ15">
         <v>32600</v>
       </c>
-    </row>
-    <row r="20" spans="27:36" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AO15" s="12">
+        <v>32.1</v>
+      </c>
+      <c r="AT15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="27:46" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AA20" s="8" t="s">
         <v>15</v>
       </c>
@@ -588,8 +612,20 @@
       <c r="AJ20">
         <v>74600</v>
       </c>
-    </row>
-    <row r="24" spans="27:36" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AO20" s="12">
+        <v>73.42</v>
+      </c>
+      <c r="AQ20" s="12">
+        <v>24.47</v>
+      </c>
+      <c r="AS20" t="s">
+        <v>25</v>
+      </c>
+      <c r="AT20">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="27:46" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AA24" s="7" t="s">
         <v>13</v>
       </c>
@@ -602,8 +638,20 @@
       <c r="AJ24">
         <v>88729</v>
       </c>
-    </row>
-    <row r="28" spans="27:36" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AO24" s="12">
+        <v>87.32</v>
+      </c>
+      <c r="AQ24" s="12">
+        <v>29.1</v>
+      </c>
+      <c r="AS24" t="s">
+        <v>25</v>
+      </c>
+      <c r="AT24">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="27:46" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AA28" s="6" t="s">
         <v>11</v>
       </c>
@@ -616,8 +664,11 @@
       <c r="AJ28">
         <v>4222</v>
       </c>
-    </row>
-    <row r="30" spans="27:36" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AO28" s="12">
+        <v>4.1500000000000004</v>
+      </c>
+    </row>
+    <row r="30" spans="27:46" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AA30" s="5" t="s">
         <v>9</v>
       </c>
@@ -630,8 +681,17 @@
       <c r="AJ30">
         <v>7926</v>
       </c>
-    </row>
-    <row r="32" spans="27:36" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AO30" s="12">
+        <v>7.8</v>
+      </c>
+      <c r="AS30" t="s">
+        <v>25</v>
+      </c>
+      <c r="AT30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="27:46" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AA32" s="4" t="s">
         <v>2</v>
       </c>
@@ -644,8 +704,17 @@
       <c r="AJ32">
         <v>7521</v>
       </c>
-    </row>
-    <row r="34" spans="27:36" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AO32" s="12">
+        <v>7.4</v>
+      </c>
+      <c r="AS32" t="s">
+        <v>25</v>
+      </c>
+      <c r="AT32">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="27:46" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AA34" s="3" t="s">
         <v>1</v>
       </c>
@@ -658,8 +727,17 @@
       <c r="AJ34">
         <v>3031</v>
       </c>
-    </row>
-    <row r="36" spans="27:36" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AO34" s="12">
+        <v>2.9</v>
+      </c>
+      <c r="AS34" t="s">
+        <v>25</v>
+      </c>
+      <c r="AT34">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="27:46" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AA36" s="1" t="s">
         <v>0</v>
       </c>
